--- a/docs/StructureDefinition-BRCID10Avaliado-1.0.xlsx
+++ b/docs/StructureDefinition-BRCID10Avaliado-1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="565">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1037,6 +1037,9 @@
   </si>
   <si>
     <t>Condition.subject.extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Condition.subject.extension:unidentifiedPatient.extension:gender</t>
@@ -2105,15 +2108,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.37109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2124,28 +2127,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.1328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="63.484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="204.25" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7451,10 +7454,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7558,20 +7561,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>325</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
@@ -7678,10 +7681,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7796,10 +7799,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7916,10 +7919,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7945,13 +7948,13 @@
         <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7959,7 +7962,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>79</v>
@@ -8001,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -8036,10 +8039,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8065,10 +8068,10 @@
         <v>111</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8119,7 +8122,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8154,20 +8157,20 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>325</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -8274,10 +8277,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8392,10 +8395,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8512,10 +8515,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8541,13 +8544,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8555,7 +8558,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>79</v>
@@ -8597,7 +8600,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>92</v>
@@ -8632,10 +8635,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8658,13 +8661,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8715,7 +8718,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8750,20 +8753,20 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>325</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>92</v>
@@ -8870,10 +8873,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8988,10 +8991,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9108,10 +9111,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9137,13 +9140,13 @@
         <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9151,7 +9154,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>79</v>
@@ -9193,7 +9196,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>92</v>
@@ -9228,10 +9231,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9257,10 +9260,10 @@
         <v>158</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9311,7 +9314,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9346,10 +9349,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9375,13 +9378,13 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9389,7 +9392,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>79</v>
@@ -9431,7 +9434,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9466,10 +9469,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9492,13 +9495,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9549,7 +9552,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9584,10 +9587,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9613,13 +9616,13 @@
         <v>172</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9669,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9678,7 +9681,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -9704,10 +9707,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9733,13 +9736,13 @@
         <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9747,7 +9750,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>79</v>
@@ -9765,13 +9768,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9789,7 +9792,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9824,10 +9827,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9853,13 +9856,13 @@
         <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9909,7 +9912,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9933,7 +9936,7 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9944,10 +9947,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10062,10 +10065,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10182,10 +10185,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10211,16 +10214,16 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10248,10 +10251,10 @@
         <v>162</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10269,7 +10272,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10293,7 +10296,7 @@
         <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10304,10 +10307,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10333,16 +10336,16 @@
         <v>158</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10367,13 +10370,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10391,7 +10394,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10412,10 +10415,10 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10426,10 +10429,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10455,16 +10458,16 @@
         <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10477,7 +10480,7 @@
         <v>79</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>79</v>
@@ -10513,7 +10516,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10534,10 +10537,10 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10548,10 +10551,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10577,13 +10580,13 @@
         <v>172</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10597,7 +10600,7 @@
         <v>79</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>79</v>
@@ -10633,7 +10636,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10654,10 +10657,10 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10668,10 +10671,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10694,13 +10697,13 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10751,7 +10754,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10772,10 +10775,10 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10786,10 +10789,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10812,16 +10815,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10871,7 +10874,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10892,10 +10895,10 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10906,10 +10909,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10935,13 +10938,13 @@
         <v>172</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10991,7 +10994,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11026,10 +11029,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11052,16 +11055,16 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11111,7 +11114,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11126,19 +11129,19 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -11146,10 +11149,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11172,16 +11175,16 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11231,7 +11234,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11246,19 +11249,19 @@
         <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>79</v>
@@ -11266,10 +11269,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11292,16 +11295,16 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11351,7 +11354,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11360,7 +11363,7 @@
         <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>103</v>
@@ -11375,10 +11378,10 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11386,10 +11389,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11412,13 +11415,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11469,7 +11472,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11490,13 +11493,13 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11504,10 +11507,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11530,13 +11533,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11587,7 +11590,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11611,10 +11614,10 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>79</v>
@@ -11622,10 +11625,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11648,13 +11651,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11705,7 +11708,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11726,13 +11729,13 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>79</v>
@@ -11740,10 +11743,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11766,13 +11769,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11823,7 +11826,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11835,7 +11838,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11847,7 +11850,7 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11858,10 +11861,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11976,10 +11979,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12096,14 +12099,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12125,10 +12128,10 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>140</v>
@@ -12183,7 +12186,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12218,10 +12221,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12247,10 +12250,10 @@
         <v>158</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12280,10 +12283,10 @@
         <v>297</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12301,7 +12304,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12310,7 +12313,7 @@
         <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>103</v>
@@ -12319,7 +12322,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>168</v>
@@ -12336,10 +12339,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12362,13 +12365,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12419,7 +12422,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12428,7 +12431,7 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>103</v>
@@ -12443,7 +12446,7 @@
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12454,10 +12457,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12483,10 +12486,10 @@
         <v>158</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12516,10 +12519,10 @@
         <v>297</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12537,7 +12540,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12561,7 +12564,7 @@
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12572,10 +12575,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12598,16 +12601,16 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12657,7 +12660,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12669,7 +12672,7 @@
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
@@ -12681,7 +12684,7 @@
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12692,10 +12695,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12810,10 +12813,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12930,14 +12933,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12959,10 +12962,10 @@
         <v>137</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>140</v>
@@ -13017,7 +13020,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13052,10 +13055,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13081,10 +13084,10 @@
         <v>158</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13114,10 +13117,10 @@
         <v>297</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -13135,7 +13138,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13144,13 +13147,13 @@
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>256</v>
@@ -13159,10 +13162,10 @@
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>79</v>
@@ -13170,10 +13173,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13196,13 +13199,13 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13253,7 +13256,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13262,7 +13265,7 @@
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13277,10 +13280,10 @@
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>79</v>
@@ -13288,10 +13291,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13314,13 +13317,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13371,7 +13374,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13386,16 +13389,16 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13406,10 +13409,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13524,10 +13527,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13644,10 +13647,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13670,16 +13673,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13729,7 +13732,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13753,7 +13756,7 @@
         <v>134</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -13764,10 +13767,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13790,13 +13793,13 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13847,7 +13850,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13871,7 +13874,7 @@
         <v>134</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13882,10 +13885,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13908,13 +13911,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13965,7 +13968,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>92</v>
@@ -13989,7 +13992,7 @@
         <v>134</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-BRCID10Avaliado-1.0.xlsx
+++ b/docs/StructureDefinition-BRCID10Avaliado-1.0.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://www.saude.gov.br)</t>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
